--- a/biology/Botanique/Lathyrus_belinensis/Lathyrus_belinensis.xlsx
+++ b/biology/Botanique/Lathyrus_belinensis/Lathyrus_belinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lathyrus belinensis est une espèce de plantes herbacées annuelles grimpantes de la famille des Fabaceae. Elle est endémique des environs du village de Belin en Turquie et, en danger extrême d'extinction, fait partie de la liste des 100 espèces les plus menacées au monde établie par l'UICN en 2012.
 </t>
